--- a/Bolnica/Use case scenarij/ZakazivanjePregleda.xlsx
+++ b/Bolnica/Use case scenarij/ZakazivanjePregleda.xlsx
@@ -83,15 +83,9 @@
     <t>5.Daje povratnu informaciju o slobodnim terminima kod izabranog doktora</t>
   </si>
   <si>
-    <t>6.Bira jedan od ponudjenih termina ili odustaje od zahtjeva</t>
-  </si>
-  <si>
     <t>Alternativni tok 1.</t>
   </si>
   <si>
-    <t>Verifikacija pacijenta neuspjesna</t>
-  </si>
-  <si>
     <t xml:space="preserve">Preduvjet: </t>
   </si>
   <si>
@@ -110,28 +104,34 @@
     <t>Alternativni tok 2.</t>
   </si>
   <si>
-    <t>Pacijent je hitan slucaj</t>
-  </si>
-  <si>
     <t>Preduvjet:</t>
   </si>
   <si>
     <t>Hitni pacijenti dobivaju prednost</t>
   </si>
   <si>
-    <t>1.Prima pacijenta u prvi moguci termin</t>
-  </si>
-  <si>
-    <t>7.Oznacava odabrani termin, ako je odabran, kao zauzet</t>
-  </si>
-  <si>
     <t>8.Daje povratnu informaciju o potvrdi zahtjeva</t>
   </si>
   <si>
-    <t>6.Bira ponudjeni termin ili odustaje od zahtjeva</t>
-  </si>
-  <si>
-    <t>Neuspesna identifikacija pacijenta, hitni slucajevi</t>
+    <t>Neuspješna identifikacija pacijenta, hitni slucajevi</t>
+  </si>
+  <si>
+    <t>6.Bira jedan od ponuđenih termina ili odustaje od zahtjeva</t>
+  </si>
+  <si>
+    <t>7.Označava odabrani termin, ako je odabran, kao zauzet</t>
+  </si>
+  <si>
+    <t>Verifikacija pacijenta neuspješna</t>
+  </si>
+  <si>
+    <t>Pacijent je hitan slučaj</t>
+  </si>
+  <si>
+    <t>1.Prima pacijenta u prvi mogući termin</t>
+  </si>
+  <si>
+    <t>6.Bira ponuđeni termin ili odustaje od zahtjeva</t>
   </si>
 </sst>
 </file>
@@ -195,12 +195,6 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -209,6 +203,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,225 +541,225 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="2"/>
+      <c r="B8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="6"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="1"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>24</v>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="3"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="3"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="4" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="5"/>
+      <c r="B28" s="3"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
         <v>27</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="5"/>
-    </row>
-    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
